--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_01.08.24_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3933 +505,4678 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731363705.4225366</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731363708.277646</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731363705.4225366.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731363708.277646.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.72</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731363721.1258214</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731363721.1258214.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731363721.1258214.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.85</v>
       </c>
-      <c r="J4" t="n">
-        <v>288.85</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731363728.9297419</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731363730.5342562</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363728.9297419.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363730.5342562.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.83</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.49</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731363734.5408285</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731363735.5023754</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363734.5408285.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363735.5023754.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.91</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.59</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731363737.5050159</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731363739.1675014</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363737.5050159.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363739.1675014.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.74</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.27</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.5300000000000011</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731363743.7186828</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731363746.1404028</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363743.7186828.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731363746.1404028.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.61</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.89</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731363746.629799</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731363746.629799.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731363746.629799.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731363751.0146396</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731363751.291986</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363751.0146396.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363751.291986.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6741</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6757</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731363752.2866297</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731363752.7326498</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363752.2866297.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363752.7326498.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6770</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6755</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731363752.8354015</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731363753.29934</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363752.8354015.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363753.29934.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6740</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6749</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731363753.3130016</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731363753.5940137</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363753.3130016.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363753.5940137.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6749</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6754</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731363759.244747</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731363764.3018866</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363759.244747.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731363764.3018866.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6720</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6724</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731363770.4575238</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731363770.4575238.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731363770.4575238.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6703.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>6703.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>6687</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731363775.1467154</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731363776.7395768</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731363775.1467154.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731363776.7395768.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>516.65</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>515.15</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731363782.501451</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731363788.1152885</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731363782.501451.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731363788.1152885.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>513.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>513.05</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731363790.10374</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731363791.1429327</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731363790.10374.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731363791.1429327.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>511.15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>511</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731363795.7724605</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731363795.7724605.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731363795.7724605.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>505.35</v>
       </c>
-      <c r="J19" t="n">
-        <v>505.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.449999999999989</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731363798.6882687</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731363800.2410624</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731363798.6882687.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731363800.2410624.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>233.13</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>233</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731363808.6851764</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731363811.5871835</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731363808.6851764.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731363811.5871835.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>233.07</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>232.86</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731363812.035216</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731363819.7255125</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731363812.035216.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731363819.7255125.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>232.08</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>230.04</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-2.04000000000002</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731363820.296084</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731363824.591936</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731363820.296084.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731363824.591936.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1048.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1045.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731363827.4820127</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731363829.1428492</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731363827.4820127.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731363829.1428492.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1043.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.6000000000001364</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731363836.1289866</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731363836.9107144</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731363836.1289866.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731363836.9107144.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1032.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1037.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731363839.724556</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731363839.724556.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731363839.724556.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1032.2</v>
       </c>
-      <c r="J26" t="n">
-        <v>1032.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.600000000000136</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731363844.5949495</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731363844.6703181</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731363844.5949495.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731363844.6703181.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.872</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.869</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731363845.1113846</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731363846.252482</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363845.1113846.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363846.252482.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>130.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>129.98</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731363846.3208666</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731363853.518094</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363846.3208666.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363853.518094.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>129.44</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>129.54</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731363856.6563313</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731363858.7187304</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363856.6563313.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363858.7187304.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>129.92</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>129.54</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731363859.1544247</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731363866.767769</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363859.1544247.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731363866.767769.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>129.06</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>128.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731363868.7692447</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731363870.387602</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731363868.7692447.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731363870.387602.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>166.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>165.88</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731363884.1976197</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731363884.1976197.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731363884.1976197.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>165.66</v>
       </c>
-      <c r="J33" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731363891.8242042</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731363892.5080996</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363891.8242042.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363892.5080996.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.985</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.81</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.1749999999999972</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731363901.1796682</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731363904.1907587</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363901.1796682.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363904.1907587.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.805</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>50.955</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731363905.198274</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731363906.6151123</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363905.198274.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363906.6151123.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>51</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>50.815</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1850000000000023</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731363907.5229897</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731363908.9102066</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363907.5229897.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731363908.9102066.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>50.74</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>50.87</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731363911.5643606</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731363911.5643606.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731363911.5643606.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>50.725</v>
       </c>
-      <c r="J38" t="n">
-        <v>50.725</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731363914.4496477</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731363914.797236</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731363914.4496477.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731363914.797236.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731363930.3895116</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731363930.9745843</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731363930.3895116.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731363930.9745843.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1416</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1416.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731363931.3102784</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731363936.7638762</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731363931.3102784.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731363936.7638762.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1412.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1413.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731363938.8154109</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731363939.7913635</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731363938.8154109.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731363939.7913635.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>61.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>60.98</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.220000000000006</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731363944.031609</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731363946.0204487</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731363944.031609.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731363946.0204487.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>61.29</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>61.31</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731363953.5381052</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731363953.91546</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731363953.5381052.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731363953.91546.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>61.01</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>61.15</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731363954.3500857</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731363954.3500857.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731363954.3500857.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>60.98</v>
       </c>
-      <c r="J45" t="n">
-        <v>60.98</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2999999999999972</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731363962.4252412</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731363964.0498657</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731363962.4252412.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731363964.0498657.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>58.93</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>58.81</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731363967.601814</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731363973.0510614</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731363967.601814.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731363973.0510614.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>58.5</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>58.35</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.1499999999999986</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731363979.412741</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731363979.412741.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731363979.412741.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>57.9</v>
       </c>
-      <c r="J48" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.6999999999999957</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731363992.0365283</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731363993.2689996</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731363992.0365283.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731363993.2689996.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>145.5</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>145.02</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731363996.4059582</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731363998.3563156</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731363996.4059582.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731363998.3563156.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>145.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>145.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731363999.4842646</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731363999.4842646.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731363999.4842646.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>144.6</v>
       </c>
-      <c r="J51" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="L51" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-1.620000000000005</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731364010.5027473</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731364014.3509188</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731364010.5027473.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731364014.3509188.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>21.475</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>21.312</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1630000000000003</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731364016.8790953</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731364016.8790953.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731364016.8790953.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>21.285</v>
       </c>
-      <c r="J53" t="n">
-        <v>21.285</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.4540000000000006</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-2.13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731364034.6395075</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731364036.846228</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731364034.6395075.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731364036.846228.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>682.3</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>683.85</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.550000000000068</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731364040.2568936</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731364052.2223427</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731364040.2568936.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731364052.2223427.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>681.55</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>678.65</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-2.899999999999977</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731364053.432553</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731364053.432553.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731364053.432553.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>679</v>
       </c>
-      <c r="J56" t="n">
-        <v>679</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="L56" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731364053.7218227</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731364053.7218227.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731364053.7218227.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>379.23</v>
       </c>
-      <c r="J57" t="n">
-        <v>379.23</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731364055.2266164</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731364055.5963178</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731364055.2266164.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731364055.5963178.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.0994</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.0003599999999999992</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731364059.4388776</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731364068.417856</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731364059.4388776.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731364068.417856.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.10028</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.10054</v>
       </c>
-      <c r="K59" t="n">
-        <v>-0.0002599999999999963</v>
+      <c r="M59" t="n">
+        <v>-0.0002600000000000102</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731364069.4967954</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731364069.4967954.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731364069.4967954.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J60" t="n">
-        <v>0.10018</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.0009000000000000119</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731364081.3448877</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731364084.8018851</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731364081.3448877.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731364084.8018851.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.6047</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.001900000000000013</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731364089.988451</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731364090.4618728</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731364089.988451.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731364090.4618728.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.6032000000000001</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.6044</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.001199999999999979</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731364090.7001956</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731364092.1351726</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731364090.7001956.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731364092.1351726.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.605</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.6048</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.000199999999999978</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731364096.3548894</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731364096.3548894.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731364096.3548894.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.6023000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.001000000000000112</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731364101.1824803</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731364102.4306386</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364101.1824803.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364102.4306386.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3035.65</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.5499999999997272</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731364102.8539534</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731364103.3758519</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364102.8539534.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364103.3758519.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>3034.9</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3037.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731364103.866508</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731364104.6158113</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364103.866508.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364104.6158113.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>3031.1</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2.849999999999909</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731364106.400803</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731364106.479705</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364106.400803.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364106.479705.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>3024.7</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3027.9</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>3.200000000000273</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731364106.6055243</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731364108.461756</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364106.6055243.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364108.461756.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3030.7</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3026.95</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>3.75</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731364108.6252182</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731364109.2892435</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364108.6252182.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364109.2892435.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>3026.55</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>3026.9</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.3499999999999091</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731364110.1284726</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731364110.4960752</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364110.1284726.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364110.4960752.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>3017.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>3022.9</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>5.650000000000091</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731364111.1729412</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731364112.1239953</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364111.1729412.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364112.1239953.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>3015.9</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>3019.9</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731364113.3530164</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731364115.184254</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364113.3530164.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364115.184254.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>3022.15</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>3024.65</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731364116.3588805</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731364119.6862106</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364116.3588805.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364119.6862106.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>3019.95</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>3006.4</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-13.54999999999973</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731364120.2857819</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731364120.477592</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364120.2857819.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364120.477592.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>3007.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>3004.3</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731364120.4925516</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731364122.093022</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364120.4925516.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364122.093022.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>3004.3</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>3003.35</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.9500000000002728</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731364122.609498</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731364124.0606847</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364122.609498.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731364124.0606847.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2999.15</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2996.35</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-2.800000000000182</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731364125.030852</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731364125.030852.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731364125.030852.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2996.95</v>
       </c>
-      <c r="J78" t="n">
-        <v>2996.95</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.8999999999996362</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731364129.0525923</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731364131.786656</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364129.0525923.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364131.786656.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>34.65</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>34.875</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2250000000000014</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731364133.8173962</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731364134.8850274</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364133.8173962.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364134.8850274.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>34.96</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>34.785</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1750000000000043</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731364136.5664608</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731364137.365978</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364136.5664608.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364137.365978.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>34.745</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>34.85</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.105000000000004</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731364138.2692828</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731364141.0960712</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364138.2692828.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364141.0960712.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>34.73</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>34.935</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.2050000000000054</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731364141.1120005</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731364141.2114706</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364141.1120005.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364141.2114706.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>34.935</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>34.74</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.1950000000000003</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731364142.1664119</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731364148.6948078</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364142.1664119.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731364148.6948078.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>34.545</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>34.445</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +5190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4459,6 +5219,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4467,13 +5237,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.649999999999636</v>
+        <v>7.549999999999272</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.474999999999974</v>
+        <v>0.5392857142856623</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -4491,6 +5267,12 @@
       <c r="D3" t="n">
         <v>0.134166666666669</v>
       </c>
+      <c r="E3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4499,13 +5281,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>22.5</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -4515,13 +5303,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.829999999999984</v>
+        <v>1.429999999999978</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3659999999999968</v>
+        <v>0.2859999999999957</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -4531,13 +5325,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6399999999999935</v>
+        <v>0.4849999999999923</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1279999999999987</v>
+        <v>0.09699999999999846</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -4547,13 +5347,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6000000000000227</v>
+        <v>2.050000000000011</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1500000000000057</v>
+        <v>0.5125000000000028</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -4563,13 +5369,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.399999999999864</v>
+        <v>5.799999999999727</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.849999999999966</v>
+        <v>1.449999999999932</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -4579,13 +5391,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3400000000000034</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08500000000000085</v>
+        <v>0.01000000000000156</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -4595,13 +5413,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00329999999999997</v>
+        <v>0.002299999999999858</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008249999999999924</v>
+        <v>0.0005749999999999644</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -4619,6 +5443,12 @@
       <c r="D11" t="n">
         <v>0.1099999999999994</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4627,13 +5457,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001000000000000029</v>
+        <v>-0.0008000000000000229</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3.333333333333429e-05</v>
+        <v>-0.0002666666666666743</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="13">
@@ -4643,13 +5479,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.349999999999909</v>
+        <v>-1.549999999999955</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4499999999999697</v>
+        <v>-0.5166666666666515</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
@@ -4659,13 +5501,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.7299999999999969</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01000000000000038</v>
+        <v>-0.2433333333333323</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="15">
@@ -4683,6 +5531,12 @@
       <c r="D15" t="n">
         <v>2.19999999999997</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4691,13 +5545,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.080000000000013</v>
+        <v>-0.539999999999992</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3600000000000042</v>
+        <v>-0.1799999999999974</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
@@ -4715,6 +5575,12 @@
       <c r="D17" t="n">
         <v>-0.5666666666666819</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4723,13 +5589,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1399999999999864</v>
+        <v>-0.9600000000000364</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06999999999999318</v>
+        <v>-0.4800000000000182</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="19">
@@ -4739,13 +5611,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1630000000000003</v>
+        <v>-0.2910000000000004</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08150000000000013</v>
+        <v>-0.1455000000000002</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.68</v>
       </c>
     </row>
     <row r="20">
@@ -4755,13 +5633,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5200000000000102</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2600000000000051</v>
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="21">
@@ -4779,6 +5663,12 @@
       <c r="D21" t="n">
         <v>0.003000000000000114</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4787,13 +5677,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="23">
@@ -4809,6 +5705,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
